--- a/data_year/zb/运输和邮电/电信主要通信能力.xlsx
+++ b/data_year/zb/运输和邮电/电信主要通信能力.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,464 +463,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1212357.6</v>
+        <v>9962466.5</v>
       </c>
       <c r="C2" t="n">
-        <v>563.5498</v>
+        <v>1641.5</v>
       </c>
       <c r="D2" t="n">
-        <v>17825.63</v>
+        <v>46537.3</v>
       </c>
       <c r="E2" t="n">
-        <v>13985.6</v>
+        <v>150284.9</v>
       </c>
       <c r="F2" t="n">
-        <v>28.6642</v>
+        <v>81.8133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1818900</v>
+        <v>12119302.9</v>
       </c>
       <c r="C3" t="n">
-        <v>703.5769</v>
+        <v>1602.3</v>
       </c>
       <c r="D3" t="n">
-        <v>25566.3</v>
+        <v>43428.4</v>
       </c>
       <c r="E3" t="n">
-        <v>21926.3</v>
+        <v>171636</v>
       </c>
       <c r="F3" t="n">
-        <v>39.9082</v>
+        <v>84.23408999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2252600</v>
+        <v>14793300.43</v>
       </c>
       <c r="C4" t="n">
-        <v>773.0133</v>
+        <v>1579.7</v>
       </c>
       <c r="D4" t="n">
-        <v>28656.8</v>
+        <v>43749.3079</v>
       </c>
       <c r="E4" t="n">
-        <v>27400.3</v>
+        <v>184023.824</v>
       </c>
       <c r="F4" t="n">
-        <v>48.7684</v>
+        <v>86.817525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2734800</v>
+        <v>17453709.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1061.1</v>
+        <v>1280.5</v>
       </c>
       <c r="D5" t="n">
-        <v>35082.5</v>
+        <v>41089.3</v>
       </c>
       <c r="E5" t="n">
-        <v>33698.4</v>
+        <v>196557.3</v>
       </c>
       <c r="F5" t="n">
-        <v>59.4303</v>
+        <v>89.00182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3519200</v>
+        <v>20612529.22</v>
       </c>
       <c r="C6" t="n">
-        <v>1263</v>
+        <v>982.9</v>
       </c>
       <c r="D6" t="n">
-        <v>42346.9</v>
+        <v>40517.14</v>
       </c>
       <c r="E6" t="n">
-        <v>39684.3</v>
+        <v>205024.92</v>
       </c>
       <c r="F6" t="n">
-        <v>69.53</v>
+        <v>92.83982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4072787.82</v>
+        <v>24863348.24</v>
       </c>
       <c r="C7" t="n">
-        <v>1371.63</v>
+        <v>811.1</v>
       </c>
       <c r="D7" t="n">
-        <v>47196.1</v>
+        <v>26446.45</v>
       </c>
       <c r="E7" t="n">
-        <v>48241.7</v>
+        <v>218149.97</v>
       </c>
       <c r="F7" t="n">
-        <v>72.304</v>
+        <v>96.5283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4279559</v>
+        <v>30420755.06</v>
       </c>
       <c r="C8" t="n">
-        <v>1442.3</v>
+        <v>681.1</v>
       </c>
       <c r="D8" t="n">
-        <v>50279.9</v>
+        <v>22441.59</v>
       </c>
       <c r="E8" t="n">
-        <v>61032</v>
+        <v>218540.03</v>
       </c>
       <c r="F8" t="n">
-        <v>72.24391799999999</v>
+        <v>99.409161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5777288.61</v>
+        <v>37801073.37</v>
       </c>
       <c r="C9" t="n">
-        <v>1709.2</v>
+        <v>603.5297</v>
       </c>
       <c r="D9" t="n">
-        <v>51034.6</v>
+        <v>18398.7466</v>
       </c>
       <c r="E9" t="n">
-        <v>85496.10000000001</v>
+        <v>242185.7823</v>
       </c>
       <c r="F9" t="n">
-        <v>79.2154</v>
+        <v>104.499781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6778495.61</v>
+        <v>43167888.41</v>
       </c>
       <c r="C10" t="n">
-        <v>1690.7</v>
+        <v>392.4342</v>
       </c>
       <c r="D10" t="n">
-        <v>50863.2</v>
+        <v>11440.4</v>
       </c>
       <c r="E10" t="n">
-        <v>114531.4</v>
+        <v>259453.14</v>
       </c>
       <c r="F10" t="n">
-        <v>79.7979</v>
+        <v>99.413014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8294565.33</v>
+        <v>47412442.31</v>
       </c>
       <c r="C11" t="n">
-        <v>1684.9</v>
+        <v>119.3694</v>
       </c>
       <c r="D11" t="n">
-        <v>49265.59976</v>
+        <v>7189.7423</v>
       </c>
       <c r="E11" t="n">
-        <v>144084.7457</v>
+        <v>272523.75</v>
       </c>
       <c r="F11" t="n">
-        <v>83.1011</v>
+        <v>108.493705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9962466.5</v>
+        <v>51692051.4</v>
       </c>
       <c r="C12" t="n">
-        <v>1641.5</v>
+        <v>74.0454</v>
       </c>
       <c r="D12" t="n">
-        <v>46537.3</v>
+        <v>6923.84</v>
       </c>
       <c r="E12" t="n">
-        <v>150284.9</v>
+        <v>274567.13</v>
       </c>
       <c r="F12" t="n">
-        <v>81.8133</v>
+        <v>111.792297</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12119302.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1602.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>43428.4</v>
-      </c>
+        <v>54808232.79</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>171636</v>
+        <v>275690.78</v>
       </c>
       <c r="F13" t="n">
-        <v>84.23408999999999</v>
+        <v>112.083653</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14793300.43</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1579.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>43749.3079</v>
-      </c>
-      <c r="E14" t="n">
-        <v>184023.824</v>
-      </c>
-      <c r="F14" t="n">
-        <v>86.817525</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>17453709.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1280.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>41089.3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>196557.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>89.00182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>20612529.22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>982.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40517.14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>205024.92</v>
-      </c>
-      <c r="F16" t="n">
-        <v>92.83982</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>24863348.24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>811.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>26446.45</v>
-      </c>
-      <c r="E17" t="n">
-        <v>218149.97</v>
-      </c>
-      <c r="F17" t="n">
-        <v>96.5283</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>30420755.06</v>
-      </c>
-      <c r="C18" t="n">
-        <v>681.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>22441.59</v>
-      </c>
-      <c r="E18" t="n">
-        <v>218540.03</v>
-      </c>
-      <c r="F18" t="n">
-        <v>99.409161</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>37801073.37</v>
-      </c>
-      <c r="C19" t="n">
-        <v>603.5297</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18398.7466</v>
-      </c>
-      <c r="E19" t="n">
-        <v>242185.7823</v>
-      </c>
-      <c r="F19" t="n">
-        <v>104.499781</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>43167888.41</v>
-      </c>
-      <c r="C20" t="n">
-        <v>392.4342</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11440.4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>259453.14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>99.413014</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>47412442.31</v>
-      </c>
-      <c r="C21" t="n">
-        <v>119.3694</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7189.7423</v>
-      </c>
-      <c r="E21" t="n">
-        <v>272523.75</v>
-      </c>
-      <c r="F21" t="n">
-        <v>108.493705</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>51692051.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>74.0454</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6923.84</v>
-      </c>
-      <c r="E22" t="n">
-        <v>274567.13</v>
-      </c>
-      <c r="F22" t="n">
-        <v>111.792297</v>
-      </c>
+        <v>59580000</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
